--- a/common/CodeTaleem Works.xlsx
+++ b/common/CodeTaleem Works.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Work Flow" sheetId="1" r:id="rId1"/>
     <sheet name="Daily Works" sheetId="2" r:id="rId2"/>
+    <sheet name="SocialMedia" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Topic</t>
   </si>
@@ -70,13 +71,79 @@
   </si>
   <si>
     <t>Aglie Methodology</t>
+  </si>
+  <si>
+    <t>S No</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>blog</t>
+  </si>
+  <si>
+    <t>Gmail</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Insta gram</t>
+  </si>
+  <si>
+    <t>Tiktok</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>https://www.i-programmer.info/news</t>
+  </si>
+  <si>
+    <t>Tech News Update</t>
+  </si>
+  <si>
+    <t>https://developer-tech.com/</t>
+  </si>
+  <si>
+    <t>https://hub.packtpub.com/category/programming/languages/</t>
+  </si>
+  <si>
+    <t>http://news.mit.edu/topic/programming-languages</t>
+  </si>
+  <si>
+    <t>https://tech.economictimes.indiatimes.com/tag/coding</t>
+  </si>
+  <si>
+    <t>https://www.sciencedaily.com/news/computers_math/computer_programming/</t>
+  </si>
+  <si>
+    <t>https://www.wired.com/tag/programming/</t>
+  </si>
+  <si>
+    <t>https://www.theserverside.com/resources/Software-programming-languages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +189,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -131,7 +209,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,12 +217,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -165,6 +258,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -472,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -531,7 +631,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter>
-    <oddFooter>&amp;CNBCU Internal</oddFooter>
+    <oddFooter>&amp;CCapgemini Public</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -597,7 +697,258 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;CNBCU Internal</oddFooter>
+    <oddFooter>&amp;CCapgemini Public</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D11" r:id="rId1"/>
+    <hyperlink ref="D12" r:id="rId2"/>
+    <hyperlink ref="D13" r:id="rId3"/>
+    <hyperlink ref="D14" r:id="rId4"/>
+    <hyperlink ref="D15" r:id="rId5"/>
+    <hyperlink ref="D16" r:id="rId6"/>
+    <hyperlink ref="D17" r:id="rId7"/>
+    <hyperlink ref="D18" r:id="rId8"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <headerFooter>
+    <oddFooter>&amp;CCapgemini Public</oddFooter>
   </headerFooter>
 </worksheet>
 </file>